--- a/data/input/absenteeism_data_42.xlsx
+++ b/data/input/absenteeism_data_42.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31737</v>
+        <v>42119</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Costela</t>
+          <t>João Pedro das Neves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>10474.67</v>
+        <v>8080.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60502</v>
+        <v>90790</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara Rocha</t>
+          <t>Enrico Caldeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>5792.85</v>
+        <v>10150.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16611</v>
+        <v>76604</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sofia Teixeira</t>
+          <t>Fernando Novaes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,26 +548,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>9219.870000000001</v>
+        <v>5315.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68983</v>
+        <v>9329</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natália Moura</t>
+          <t>Luiz Gustavo Gomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,89 +577,89 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>7496.83</v>
+        <v>3097.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85997</v>
+        <v>14893</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Sabrina Castro</t>
+          <t>Calebe Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>3002.56</v>
+        <v>8299.309999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94002</v>
+        <v>88883</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marina Lima</t>
+          <t>Isis Costela</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>12342.06</v>
+        <v>5276.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55774</v>
+        <v>51231</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vitória Moreira</t>
+          <t>João Miguel Moura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>9556.08</v>
+        <v>9237.559999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53011</v>
+        <v>20722</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo Ribeiro</t>
+          <t>Bárbara Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>3692.04</v>
+        <v>7885.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27172</v>
+        <v>15621</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Pedro Henrique Pereira</t>
+          <t>Fernando Mendes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>3850.01</v>
+        <v>3293.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>59814</v>
+        <v>23272</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Eduardo Barbosa</t>
+          <t>Ana Jesus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>8541.610000000001</v>
+        <v>7493.18</v>
       </c>
     </row>
   </sheetData>
